--- a/data/trans_camb/P28A_1_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P28A_1_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-9,59</t>
+          <t>-5,83</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,83</t>
+          <t>-25,4</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-20,81</t>
+          <t>-22,01</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,19</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,59</t>
+          <t>11,82</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-20,74</t>
+          <t>-15,78</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-6,29</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>-5,18</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-21,05</t>
+          <t>-18,13</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-25,99; 6,66</t>
+          <t>-28,79; 19,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-22,48; 12,59</t>
+          <t>-45,96; -1,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-36,92; -5,64</t>
+          <t>-43,78; 3,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-19,63; 13,54</t>
+          <t>-17,47; 22,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 24,66</t>
+          <t>-9,87; 31,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-37,28; -6,29</t>
+          <t>-33,69; -0,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-18,35; 5,41</t>
+          <t>-17,64; 14,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-11,22; 13,3</t>
+          <t>-20,73; 10,06</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-30,86; -10,36</t>
+          <t>-32,24; -3,07</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-27,0%</t>
+          <t>-14,09%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-13,58%</t>
+          <t>-61,36%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-58,56%</t>
+          <t>-53,16%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-8,42%</t>
+          <t>10,89%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>22,65%</t>
+          <t>36,99%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-54,69%</t>
+          <t>-49,4%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-17,07%</t>
+          <t>-1,27%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>-14,41%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-57,11%</t>
+          <t>-50,45%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-57,71; 27,36</t>
+          <t>-56,81; 69,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-52,92; 47,47</t>
+          <t>-87,81; 12,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-82,6; -17,5</t>
+          <t>-84,11; 16,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-41,52; 47,35</t>
+          <t>-41,9; 110,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-19,96; 82,81</t>
+          <t>-24,3; 145,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-78,4; -19,34</t>
+          <t>-80,39; 7,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-43,01; 16,83</t>
+          <t>-40,08; 57,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-26,07; 42,35</t>
+          <t>-47,92; 37,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-74,06; -33,13</t>
+          <t>-75,19; -8,16</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-32,89</t>
+          <t>-40,94</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-21,5</t>
+          <t>-17,85</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-12,67</t>
+          <t>-10,75</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-25,8</t>
+          <t>-26,76</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-21,4</t>
+          <t>-28,35</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-19,5</t>
+          <t>-24,89</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-29,17</t>
+          <t>-33,94</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-21,48</t>
+          <t>-22,6</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-15,91</t>
+          <t>-16,8</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-53,03; -16,2</t>
+          <t>-63,95; -18,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-43,13; 2,77</t>
+          <t>-46,05; 14,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-34,39; 14,97</t>
+          <t>-42,67; 25,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-39,32; -12,16</t>
+          <t>-43,55; -9,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-34,63; -5,83</t>
+          <t>-45,45; -11,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-34,45; -3,62</t>
+          <t>-41,8; -7,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-40,28; -17,24</t>
+          <t>-48,72; -19,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-32,81; -8,23</t>
+          <t>-39,94; -3,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-29,89; -0,2</t>
+          <t>-36,84; 4,55</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-66,04%</t>
+          <t>-72,76%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-43,17%</t>
+          <t>-31,72%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-25,44%</t>
+          <t>-19,11%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-50,68%</t>
+          <t>-54,62%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-42,04%</t>
+          <t>-57,87%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-38,31%</t>
+          <t>-50,81%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-57,92%</t>
+          <t>-64,42%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-42,64%</t>
+          <t>-42,9%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-31,59%</t>
+          <t>-31,9%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-84,0; -38,24</t>
+          <t>-90,64; -39,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-71,57; 17,99</t>
+          <t>-69,11; 45,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-62,4; 43,75</t>
+          <t>-69,27; 83,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-68,93; -25,86</t>
+          <t>-75,7; -22,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-60,39; -12,5</t>
+          <t>-78,7; -29,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-59,18; -7,52</t>
+          <t>-73,43; -15,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-71,53; -37,38</t>
+          <t>-79,75; -42,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-59,37; -17,6</t>
+          <t>-64,91; -2,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-53,99; 0,34</t>
+          <t>-60,78; 14,18</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-37,54</t>
+          <t>-35,4</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-31,46</t>
+          <t>-35,43</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-35,22</t>
+          <t>-43,7</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-29,24</t>
+          <t>-32,49</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-27,71</t>
+          <t>-29,9</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-37,11</t>
+          <t>-32,97</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-33,07</t>
+          <t>-33,68</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-29,38</t>
+          <t>-32,08</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-35,94</t>
+          <t>-37,26</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-51,98; -24,18</t>
+          <t>-50,45; -17,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-45,01; -15,0</t>
+          <t>-51,23; -17,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-48,68; -16,48</t>
+          <t>-58,37; -27,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-39,71; -18,58</t>
+          <t>-44,34; -20,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-38,33; -15,96</t>
+          <t>-43,39; -17,27</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-47,14; -25,83</t>
+          <t>-46,07; -19,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-41,83; -24,22</t>
+          <t>-43,94; -22,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-38,78; -18,82</t>
+          <t>-42,77; -21,28</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-44,66; -23,62</t>
+          <t>-47,17; -27,86</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-59,67%</t>
+          <t>-58,25%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-50,0%</t>
+          <t>-58,32%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-55,97%</t>
+          <t>-71,92%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-52,42%</t>
+          <t>-59,42%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-49,66%</t>
+          <t>-54,69%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-66,52%</t>
+          <t>-60,3%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-55,97%</t>
+          <t>-59,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-49,73%</t>
+          <t>-56,21%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-60,83%</t>
+          <t>-65,28%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-74,45; -41,63</t>
+          <t>-76,26; -33,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-66,38; -26,57</t>
+          <t>-76,37; -34,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-72,42; -25,8</t>
+          <t>-85,39; -51,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-65,57; -36,12</t>
+          <t>-73,39; -40,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-64,26; -31,68</t>
+          <t>-70,85; -34,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-77,85; -49,72</t>
+          <t>-75,28; -40,66</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-65,97; -43,83</t>
+          <t>-71,0; -42,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-61,22; -34,41</t>
+          <t>-68,43; -40,96</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-71,75; -42,62</t>
+          <t>-76,71; -53,49</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-42,01</t>
+          <t>-39,13</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-30,03</t>
+          <t>-29,49</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-37,7</t>
+          <t>-32,98</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-35,4</t>
+          <t>-36,56</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-32,63</t>
+          <t>-34,7</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-38,59</t>
+          <t>-38,79</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-38,29</t>
+          <t>-37,75</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-31,46</t>
+          <t>-32,3</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-38,23</t>
+          <t>-36,09</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-53,16; -30,73</t>
+          <t>-52,27; -25,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-42,07; -18,01</t>
+          <t>-43,42; -14,13</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-48,76; -25,77</t>
+          <t>-47,34; -17,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-46,28; -24,43</t>
+          <t>-48,94; -24,52</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-42,48; -22,43</t>
+          <t>-47,0; -21,91</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-48,13; -28,29</t>
+          <t>-50,8; -25,94</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-45,65; -30,34</t>
+          <t>-46,81; -28,04</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-39,14; -24,05</t>
+          <t>-42,24; -23,13</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-45,4; -30,67</t>
+          <t>-45,67; -27,21</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-70,38%</t>
+          <t>-68,62%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-50,31%</t>
+          <t>-51,71%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-63,15%</t>
+          <t>-57,83%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-54,9%</t>
+          <t>-60,11%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-50,59%</t>
+          <t>-57,06%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-59,85%</t>
+          <t>-63,78%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-61,44%</t>
+          <t>-63,9%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-50,48%</t>
+          <t>-54,67%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-61,34%</t>
+          <t>-61,09%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-81,25; -55,72</t>
+          <t>-81,55; -49,77</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-65,83; -32,95</t>
+          <t>-68,52; -28,15</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-74,36; -46,07</t>
+          <t>-73,36; -34,26</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-66,93; -39,72</t>
+          <t>-73,65; -43,89</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-61,19; -36,56</t>
+          <t>-69,75; -38,97</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-70,65; -47,32</t>
+          <t>-76,14; -45,49</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-69,73; -51,19</t>
+          <t>-73,21; -50,97</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-60,42; -40,95</t>
+          <t>-65,69; -41,41</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-69,21; -51,78</t>
+          <t>-71,49; -48,85</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-42,17</t>
+          <t>-48,17</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-47,19</t>
+          <t>-51,24</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-45,82</t>
+          <t>-52,05</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-42,08</t>
+          <t>-57,48</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-37,22</t>
+          <t>-39,14</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-44,07</t>
+          <t>-57,51</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-42,13</t>
+          <t>-52,13</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-42,52</t>
+          <t>-46,24</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-44,99</t>
+          <t>-54,39</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-53,06; -30,21</t>
+          <t>-61,66; -31,69</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-57,35; -34,6</t>
+          <t>-64,83; -36,09</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-56,72; -33,37</t>
+          <t>-65,49; -35,17</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-53,28; -28,77</t>
+          <t>-71,28; -40,4</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-49,6; -23,35</t>
+          <t>-53,96; -18,57</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-56,11; -31,06</t>
+          <t>-72,12; -41,41</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-50,15; -32,85</t>
+          <t>-61,58; -40,43</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-51,11; -33,44</t>
+          <t>-56,92; -34,42</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-53,54; -35,98</t>
+          <t>-64,29; -41,97</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-64,2%</t>
+          <t>-66,44%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-71,84%</t>
+          <t>-70,68%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-69,76%</t>
+          <t>-71,8%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-63,63%</t>
+          <t>-77,47%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-56,29%</t>
+          <t>-52,76%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-66,65%</t>
+          <t>-77,51%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-63,94%</t>
+          <t>-71,19%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-64,53%</t>
+          <t>-63,14%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-68,28%</t>
+          <t>-74,28%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-76,28; -49,89</t>
+          <t>-79,54; -48,02</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-81,62; -56,67</t>
+          <t>-83,13; -54,36</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-80,4; -54,7</t>
+          <t>-83,93; -54,16</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-74,8; -47,12</t>
+          <t>-88,54; -59,9</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-69,92; -39,44</t>
+          <t>-68,36; -28,47</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-78,28; -51,23</t>
+          <t>-88,96; -60,62</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-72,97; -53,26</t>
+          <t>-80,56; -58,62</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-73,82; -54,19</t>
+          <t>-75,07; -50,5</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-76,74; -57,57</t>
+          <t>-83,21; -63,19</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-39,22</t>
+          <t>-42,09</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-43,57</t>
+          <t>-55,9</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-47,44</t>
+          <t>-58,42</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-36,27</t>
+          <t>-36,91</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-39,97</t>
+          <t>-51,92</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-43,59</t>
+          <t>-58,84</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-37,51</t>
+          <t>-39,08</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-41,88</t>
+          <t>-53,7</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-44,56</t>
+          <t>-58,58</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-52,34; -23,58</t>
+          <t>-60,25; -19,89</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-57,27; -28,36</t>
+          <t>-70,83; -35,27</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-60,72; -32,32</t>
+          <t>-73,38; -39,97</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-52,01; -22,57</t>
+          <t>-54,63; -14,46</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-54,79; -24,38</t>
+          <t>-67,96; -31,61</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-62,85; -2,7</t>
+          <t>-74,49; -35,88</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-48,5; -27,48</t>
+          <t>-51,65; -24,75</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-52,05; -31,45</t>
+          <t>-64,82; -39,46</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-56,78; -17,65</t>
+          <t>-69,46; -45,36</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-64,56%</t>
+          <t>-59,77%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-71,72%</t>
+          <t>-79,38%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-78,08%</t>
+          <t>-82,95%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-52,27%</t>
+          <t>-46,9%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-57,6%</t>
+          <t>-65,98%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-62,81%</t>
+          <t>-74,77%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-57,33%</t>
+          <t>-52,17%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-64,0%</t>
+          <t>-71,68%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-68,1%</t>
+          <t>-78,2%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-78,31; -43,75</t>
+          <t>-78,03; -31,58</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-84,91; -54,56</t>
+          <t>-90,64; -58,56</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-89,23; -59,23</t>
+          <t>-94,39; -63,06</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-67,76; -35,34</t>
+          <t>-64,58; -21,02</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-72,96; -39,16</t>
+          <t>-81,41; -42,73</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-88,05; -4,25</t>
+          <t>-89,82; -48,97</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-68,59; -44,84</t>
+          <t>-65,0; -35,39</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-73,66; -51,38</t>
+          <t>-82,82; -57,76</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-84,64; -23,57</t>
+          <t>-88,3; -64,25</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-35,14</t>
+          <t>-36,94</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-30,15</t>
+          <t>-35,22</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-33,88</t>
+          <t>-35,91</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-29,39</t>
+          <t>-31,03</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-25,94</t>
+          <t>-28,81</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-34,51</t>
+          <t>-36,86</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-32,1</t>
+          <t>-33,77</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-28,05</t>
+          <t>-31,83</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-34,22</t>
+          <t>-36,33</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-41,27; -29,26</t>
+          <t>-44,48; -28,6</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-36,23; -23,07</t>
+          <t>-43,72; -26,04</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-40,75; -26,51</t>
+          <t>-44,32; -24,84</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-34,44; -23,75</t>
+          <t>-37,73; -24,22</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-31,24; -20,68</t>
+          <t>-34,84; -22,01</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-39,55; -25,72</t>
+          <t>-43,43; -30,59</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-35,92; -28,12</t>
+          <t>-38,69; -28,55</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-31,77; -23,63</t>
+          <t>-36,84; -25,94</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-38,56; -28,63</t>
+          <t>-41,42; -30,1</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-61,75%</t>
+          <t>-61,31%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-52,97%</t>
+          <t>-58,47%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-59,52%</t>
+          <t>-59,61%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-50,71%</t>
+          <t>-54,09%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-44,75%</t>
+          <t>-50,22%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-59,54%</t>
+          <t>-64,26%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-55,85%</t>
+          <t>-57,53%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-48,81%</t>
+          <t>-54,22%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-59,55%</t>
+          <t>-61,88%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,54 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-68,17; -53,7</t>
+          <t>-69,81; -51,24</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-61,0; -42,86</t>
+          <t>-68,02; -44,92</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-68,36; -48,23</t>
+          <t>-70,29; -42,66</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-57,39; -43,17</t>
+          <t>-62,66; -44,97</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-51,97; -36,54</t>
+          <t>-58,26; -40,02</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-66,47; -42,9</t>
+          <t>-72,15; -55,96</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-60,84; -50,33</t>
+          <t>-63,7; -51,0</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-54,08; -42,35</t>
+          <t>-60,52; -46,34</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-65,16; -50,6</t>
+          <t>-68,52; -52,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
